--- a/数据库建立/药库管理子系统初始数据 改.xlsx
+++ b/数据库建立/药库管理子系统初始数据 改.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="9990" tabRatio="657" firstSheet="2" activeTab="2"/>
+    <workbookView windowWidth="20370" windowHeight="9990" tabRatio="657" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="tb_medicine" sheetId="1" r:id="rId1"/>
@@ -266,13 +266,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="177" formatCode="00"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0000"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -296,6 +296,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -304,7 +312,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,100 +410,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +426,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -442,19 +442,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,25 +556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,37 +580,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,91 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,8 +639,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,13 +654,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,21 +685,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -706,6 +695,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,8 +728,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,10 +741,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -753,137 +753,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -894,6 +894,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1214,19 +1217,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="42.375" customWidth="1"/>
     <col min="5" max="6" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="9" max="9" width="76.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1255,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1280,8 +1284,12 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"')"</f>
+        <v>('1','硫酸阿托品片','1','内脏绞痛，有机磷酸酯类中毒','瓶','1.5','mg','48个月')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1306,8 +1314,12 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I13" si="0">"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"')"</f>
+        <v>('2','氢溴酸东莨菪碱片','1','麻醉前给药，感染性休克','瓶','1','mg','24个月')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1332,8 +1344,12 @@
       <c r="H4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>('3','溴甲贝那替秦片','1','胃及十二指肠溃疡，胃酸过多症','瓶','45','mg','24个月')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1343,7 +1359,7 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
@@ -1358,8 +1374,12 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>('4','甲磺酸酚妥拉明片','2','用于勃起功能障碍的治疗','瓶','40','mg','48个月')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1384,8 +1404,12 @@
       <c r="H6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>('5','盐酸哌唑嗪片','2','轻，中度高血压','瓶','2','mg','36个月')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1410,8 +1434,12 @@
       <c r="H7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>('6','盐酸普萘洛尔片 ','2','高血压，心肌梗死','瓶','120','mg','36个月')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1436,8 +1464,12 @@
       <c r="H8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>('7','地西泮片','3','抗焦虑，镇静，催眠','瓶','5','mg','48个月')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1462,8 +1494,12 @@
       <c r="H9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>('8','阿普唑仑片','3','抗焦虑，抗抑郁','瓶','1.2','mg','36个月')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1488,8 +1524,12 @@
       <c r="H10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>('9','三唑仑片','3','镇静催眠','瓶','0.5','mg','36个月')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1514,8 +1554,12 @@
       <c r="H11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>('10','氢氯噻嗪片','4','高血压，水肿性疾病','瓶','30','mg','24个月')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1540,8 +1584,12 @@
       <c r="H12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>('11','硝苯地平片','4','心绞痛，高血压','瓶','50','mg','36个月')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1565,6 +1613,10 @@
       </c>
       <c r="H13" t="s">
         <v>22</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>('12','氯沙坦钾片','4','高血压','瓶','50','mg','36个月')</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -1683,19 +1735,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="78.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1705,9 +1758,13 @@
       <c r="C1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+      <c r="F1" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"')"</f>
+        <v>('1','admin1','123')</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1716,9 +1773,13 @@
       <c r="C2">
         <v>123</v>
       </c>
+      <c r="F2" t="str">
+        <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"')"</f>
+        <v>('2','admin2','123')</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1737,16 +1798,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1757,36 +1819,52 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" s="2" t="str">
+        <f>"VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>VALUES('1','抗胆碱药')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" s="2" t="str">
+        <f>"VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>VALUES('2','抗肾上腺素药')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" s="2" t="str">
+        <f>"VALUES('"&amp;A4&amp;"','"&amp;B4&amp;"')"</f>
+        <v>VALUES('3','镇静催眠药')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>"VALUES('"&amp;A5&amp;"','"&amp;B5&amp;"')"</f>
+        <v>VALUES('4','抗高血压药')</v>
       </c>
     </row>
   </sheetData>
@@ -1798,13 +1876,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
     <col min="2" max="2" width="11.75" customWidth="1"/>
@@ -1812,6 +1890,7 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1834,7 +1913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>171016001</v>
       </c>
@@ -1853,8 +1932,12 @@
       <c r="F2">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>('171016001','2017.10.16','1','地西泮片','300','25')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>171016002</v>
       </c>
@@ -1872,6 +1955,10 @@
       </c>
       <c r="F3">
         <v>15</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>('171016002','2017.10.16','2','硫酸阿托品片','300','15')</v>
       </c>
     </row>
   </sheetData>
@@ -1883,19 +1970,20 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1918,7 +2006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>171016001</v>
       </c>
@@ -1937,8 +2025,12 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>('171016001','1','1','50','1996.10.16','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>171016002</v>
       </c>
@@ -1956,6 +2048,10 @@
       </c>
       <c r="F3" s="2">
         <v>1</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>('171016002','2','2','30','1996.10.16','1')</v>
       </c>
     </row>
   </sheetData>
@@ -1967,16 +2063,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1987,20 +2084,28 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="D2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>('1','李白')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>('2','黄忠')</v>
       </c>
     </row>
   </sheetData>
@@ -2012,10 +2117,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -2027,6 +2132,8 @@
     <col min="7" max="7" width="9.875" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="0.875" customWidth="1"/>
+    <col min="12" max="12" width="101.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2061,7 +2168,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2092,8 +2199,12 @@
       <c r="J2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="L2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"')"</f>
+        <v>('1','1','1000','2017.10.16','杭州默沙东制药有限公司','30','40','1','2017.09.30','2019.09.30')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2123,6 +2234,10 @@
       </c>
       <c r="J3" t="s">
         <v>74</v>
+      </c>
+      <c r="L3" t="str">
+        <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"')"</f>
+        <v>('2','2','800','2017.10.16','浙江六和制药厂','25','45','1','2017.09.30','2018.09.30')</v>
       </c>
     </row>
   </sheetData>
@@ -2134,19 +2249,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="3" width="11.75" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="71.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2169,7 +2285,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2188,8 +2304,12 @@
       <c r="F2">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="str">
+        <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>('1','1','1','2017.10.16','40','39')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2207,6 +2327,10 @@
       </c>
       <c r="F3">
         <v>42</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>('2','2','1','2017.10.16','45','42')</v>
       </c>
     </row>
   </sheetData>

--- a/数据库建立/药库管理子系统初始数据 改.xlsx
+++ b/数据库建立/药库管理子系统初始数据 改.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="9990" tabRatio="657" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="20370" windowHeight="9990" tabRatio="657" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="tb_medicine" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>MedicineNo</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>OutDate</t>
-  </si>
-  <si>
-    <t>1996.10.16</t>
   </si>
   <si>
     <t>ChNo</t>
@@ -266,13 +263,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000"/>
     <numFmt numFmtId="177" formatCode="00"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0000"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -289,6 +286,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -296,62 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,32 +322,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,9 +368,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,12 +391,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,91 +439,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,91 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,11 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,42 +672,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -725,11 +705,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,145 +738,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1972,8 +1969,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2020,14 +2017,14 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
       <c r="H2" t="str">
         <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
-        <v>('171016001','1','1','50','1996.10.16','1')</v>
+        <v>('171016001','1','1','50','2017.10.16','1')</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2044,14 +2041,14 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="H3" t="str">
         <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
-        <v>('171016002','2','2','30','1996.10.16','1')</v>
+        <v>('171016002','2','2','30','2017.10.16','1')</v>
       </c>
     </row>
   </sheetData>
@@ -2078,10 +2075,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>60</v>
-      </c>
-      <c r="B1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2089,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="str">
         <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
@@ -2101,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="str">
         <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
@@ -2138,34 +2135,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
         <v>53</v>
       </c>
       <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2182,7 +2179,7 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2">
         <v>30</v>
@@ -2194,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
         <v>71</v>
-      </c>
-      <c r="J2" t="s">
-        <v>72</v>
       </c>
       <c r="L2" t="str">
         <f>"('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"','"&amp;J2&amp;"')"</f>
@@ -2218,7 +2215,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>25</v>
@@ -2230,10 +2227,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L3" t="str">
         <f>"('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"','"&amp;J3&amp;"')"</f>
@@ -2251,7 +2248,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
@@ -2267,7 +2264,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2276,13 +2273,13 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
